--- a/strategy_hist_sum/residual_analysis_2_lv_3.xlsx
+++ b/strategy_hist_sum/residual_analysis_2_lv_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>F</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>reR</t>
+  </si>
+  <si>
+    <t>2_3</t>
   </si>
   <si>
     <t>▽</t>
@@ -402,6 +405,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -463,13 +469,13 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>55</v>
